--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440581.67</v>
+        <v>1483255.61</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22029.08</v>
+        <v>44947.14</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50109.29</v>
+        <v>50232.48</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19326.13</v>
+        <v>19191.06</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28180.59</v>
+        <v>18829.67</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69022.5</v>
+        <v>69118.50999999999</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4470.52</v>
+        <v>4482.65</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40604.13</v>
+        <v>40774.22</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33361.7</v>
+        <v>33376.31</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6797.56</v>
+        <v>4680.5</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22968.43</v>
+        <v>22995.56</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29030.04</v>
+        <v>30445.47</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30806.87</v>
+        <v>30812.29</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18203.35</v>
+        <v>18260.31</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7638.48</v>
+        <v>7587.14</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2688.25</v>
+        <v>2714.16</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6508.76</v>
+        <v>6521.36</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8919.75</v>
+        <v>8909.01</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2390.31</v>
+        <v>2414.91</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56005.04</v>
+        <v>55947.91</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2693.3</v>
+        <v>2694.63</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,137 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>856.67</v>
+        <v>853.27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22420.32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1501.67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2000.35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>164987.91</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6020.08</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5629.82</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>372434</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8789.83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>37839.77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>75680.35000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>399.42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>853.27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>353857.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,35 +439,49 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1483255.61</v>
+        <v>50232.48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50366.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44947.14</v>
+        <v>2414.91</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2379.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50232.48</v>
+        <v>6521.36</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6511.13</v>
       </c>
     </row>
     <row r="5">
@@ -479,275 +493,359 @@
       <c r="B5" t="n">
         <v>19191.06</v>
       </c>
+      <c r="C5" t="n">
+        <v>18998.69</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18829.67</v>
+        <v>8789.83</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8085.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69118.50999999999</v>
+        <v>18829.67</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18483.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4482.65</v>
+        <v>69118.50999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>68831.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40774.22</v>
+        <v>4482.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4368.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33376.31</v>
+        <v>2000.35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1999.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4680.5</v>
+        <v>164987.91</v>
+      </c>
+      <c r="C11" t="n">
+        <v>165125.55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22995.56</v>
+        <v>22420.32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22403.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30445.47</v>
+        <v>37839.77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37898.77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30812.29</v>
+        <v>1501.67</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1499.41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18260.31</v>
+        <v>30445.47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30554.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7587.14</v>
+        <v>30812.29</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30759.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2714.16</v>
+        <v>40774.22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40873.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6521.36</v>
+        <v>33376.31</v>
+      </c>
+      <c r="C18" t="n">
+        <v>33306.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8909.01</v>
+        <v>55947.91</v>
+      </c>
+      <c r="C19" t="n">
+        <v>55950.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2414.91</v>
+        <v>2694.63</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2695.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55947.91</v>
+        <v>399.42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2694.63</v>
+        <v>4680.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3706.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>853.27</v>
+        <v>22995.56</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23177.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22420.32</v>
+        <v>853.27</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1258.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1501.67</v>
+        <v>853.27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1258.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2000.35</v>
+        <v>6020.08</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5990.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>164987.91</v>
+        <v>5629.82</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5649.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6020.08</v>
+        <v>18260.31</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18238.66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5629.82</v>
+        <v>7587.14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7691.68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>372434</v>
+        <v>8909.01</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8934.290000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8789.83</v>
+        <v>353857.4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>353937.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>37839.77</v>
+        <v>372434</v>
+      </c>
+      <c r="C32" t="n">
+        <v>387050.49</v>
       </c>
     </row>
     <row r="33">
@@ -759,35 +857,47 @@
       <c r="B33" t="n">
         <v>75680.35000000001</v>
       </c>
+      <c r="C33" t="n">
+        <v>75667.28</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>399.42</v>
+        <v>2714.16</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2696.38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>853.27</v>
+        <v>44947.14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>45356.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>353857.4</v>
+        <v>1483255.61</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1496750.51</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,345 +439,452 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1495492.07</v>
+        <v>50366.13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50309.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46734.13</v>
+        <v>2379.69</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2383.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50366.13</v>
+        <v>6511.13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6537.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2379.69</v>
+        <v>18998.69</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19092.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6511.13</v>
+        <v>8085.95</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9069.309999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18998.69</v>
+        <v>18483.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18544.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8085.95</v>
+        <v>68831.62</v>
+      </c>
+      <c r="C8" t="n">
+        <v>68919.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18483.8</v>
+        <v>4368.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4522.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68831.62</v>
+        <v>22403.68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22441.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4368.28</v>
+        <v>1499.41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1500.71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22403.68</v>
+        <v>1999.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2002.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1499.41</v>
+        <v>165125.55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>164767.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1999.3</v>
+        <v>37898.77</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37960.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165125.55</v>
+        <v>30554.19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>33459.83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37898.77</v>
+        <v>30759.08</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31794.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30554.19</v>
+        <v>40873.12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40649.77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30759.08</v>
+        <v>33306.76</v>
+      </c>
+      <c r="C18" t="n">
+        <v>33383.37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40873.12</v>
+        <v>55950.03</v>
+      </c>
+      <c r="C19" t="n">
+        <v>56011.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33306.76</v>
+        <v>2695.08</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2677.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55950.03</v>
+        <v>403.28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>404.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2695.08</v>
+        <v>3706.03</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3689.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>403.28</v>
+        <v>23177.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23156.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3706.03</v>
+        <v>1258.44</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1258.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23177.7</v>
+        <v>5990.75</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6017.62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1258.44</v>
+        <v>5649.08</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5627.43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5990.75</v>
+        <v>18238.66</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18282.58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5649.08</v>
+        <v>7691.68</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7602.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18238.66</v>
+        <v>8934.290000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8916.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7691.68</v>
+        <v>353937.75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>353831.64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8934.290000000001</v>
+        <v>387050.49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>387147.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>353937.75</v>
+        <v>75667.28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>75569.42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>387050.49</v>
+        <v>2696.38</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2705.63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75667.28</v>
+        <v>46734.13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46882.37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2696.38</v>
+        <v>1495492.07</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1500235.79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -532,9 +532,7 @@
       <c r="B8" t="n">
         <v>68831.62</v>
       </c>
-      <c r="C8" t="n">
-        <v>68919.09</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -545,9 +543,7 @@
       <c r="B9" t="n">
         <v>4368.28</v>
       </c>
-      <c r="C9" t="n">
-        <v>4522.63</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -558,9 +554,7 @@
       <c r="B10" t="n">
         <v>22403.68</v>
       </c>
-      <c r="C10" t="n">
-        <v>22441.18</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -571,9 +565,7 @@
       <c r="B11" t="n">
         <v>1499.41</v>
       </c>
-      <c r="C11" t="n">
-        <v>1500.71</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -584,9 +576,7 @@
       <c r="B12" t="n">
         <v>1999.3</v>
       </c>
-      <c r="C12" t="n">
-        <v>2002.88</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -597,9 +587,7 @@
       <c r="B13" t="n">
         <v>165125.55</v>
       </c>
-      <c r="C13" t="n">
-        <v>164767.13</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -610,9 +598,7 @@
       <c r="B14" t="n">
         <v>37898.77</v>
       </c>
-      <c r="C14" t="n">
-        <v>37960.32</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -623,9 +609,7 @@
       <c r="B15" t="n">
         <v>30554.19</v>
       </c>
-      <c r="C15" t="n">
-        <v>33459.83</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -636,9 +620,7 @@
       <c r="B16" t="n">
         <v>30759.08</v>
       </c>
-      <c r="C16" t="n">
-        <v>31794.13</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -649,9 +631,7 @@
       <c r="B17" t="n">
         <v>40873.12</v>
       </c>
-      <c r="C17" t="n">
-        <v>40649.77</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -779,9 +759,7 @@
       <c r="B27" t="n">
         <v>18238.66</v>
       </c>
-      <c r="C27" t="n">
-        <v>18282.58</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -871,7 +849,7 @@
         <v>46734.13</v>
       </c>
       <c r="C34" t="n">
-        <v>46882.37</v>
+        <v>51139.79</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +862,7 @@
         <v>1495492.07</v>
       </c>
       <c r="C35" t="n">
-        <v>1500235.79</v>
+        <v>1073935.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,21 +502,41 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>50366.13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50309.35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50338.94</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50067.13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50388.99</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50210.38</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50301.98</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50256.69</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50036.95</v>
+      </c>
+      <c r="K2" t="n">
+        <v>50199.31</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50411.95</v>
+      </c>
+      <c r="M2" t="n">
         <v>40604.9</v>
       </c>
-      <c r="C2" t="n">
-        <v>36391.46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36850.23</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6396.66</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6404.4</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -495,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>2379.69</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2383.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2409.47</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2427.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2394.25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2391.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2400.94</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2370.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2389.68</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2389.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2394.17</v>
+      </c>
+      <c r="M3" t="n">
         <v>2386.7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2415.86</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2417.13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2414.52</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2410.86</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2371.92</v>
       </c>
     </row>
     <row r="4">
@@ -520,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>6511.13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6537.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6539.81</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6555.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6503.67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6569.21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6563.06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6554.49</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6534.86</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6509.23</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6511</v>
+      </c>
+      <c r="M4" t="n">
         <v>6548.15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6574</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6546.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6549.84</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6538.53</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6556.84</v>
       </c>
     </row>
     <row r="5">
@@ -545,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>18998.69</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19092.07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18943.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19262.34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18968.65</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19325.79</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18934.95</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19276.63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>19315.39</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19020.13</v>
+      </c>
+      <c r="L5" t="n">
+        <v>19212.03</v>
+      </c>
+      <c r="M5" t="n">
         <v>18997</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18994.24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19301.18</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19053.06</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19162.21</v>
-      </c>
-      <c r="G5" t="n">
-        <v>19063.21</v>
       </c>
     </row>
     <row r="6">
@@ -570,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>8085.95</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9069.309999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8699.67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9033.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8657.01</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8725.639999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8790.110000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8017.74</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8654.469999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8350.809999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8595.83</v>
+      </c>
+      <c r="M6" t="n">
         <v>9107.99</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9199.969999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9140.610000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8684.959999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9169.26</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7948.28</v>
       </c>
     </row>
     <row r="7">
@@ -595,17 +717,41 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>18483.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18544.26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18700.05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17202.88</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17059.13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17204.22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17225.21</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17328.78</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17218.55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17309.89</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17246.51</v>
+      </c>
+      <c r="M7" t="n">
         <v>17133.25</v>
       </c>
-      <c r="C7" t="n">
-        <v>7226.45</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4386.99</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -614,637 +760,1141 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>68831.62</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>75604.78</v>
+      </c>
+      <c r="E8" t="n">
+        <v>75863.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75843.63</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75797.59</v>
+      </c>
+      <c r="H8" t="n">
+        <v>75383.28999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>75723.86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>75385.23</v>
+      </c>
+      <c r="K8" t="n">
+        <v>75467.72</v>
+      </c>
+      <c r="L8" t="n">
+        <v>75741.38</v>
+      </c>
+      <c r="M8" t="n">
         <v>75652.34</v>
-      </c>
-      <c r="C8" t="n">
-        <v>75811.60000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>70430.05</v>
-      </c>
-      <c r="E8" t="n">
-        <v>59701.78</v>
-      </c>
-      <c r="F8" t="n">
-        <v>41196.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>21215.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22382.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>22455.82</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22540.7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>22392.77</v>
-      </c>
-      <c r="F9" t="n">
-        <v>21386.44</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16655.23</v>
-      </c>
+        <v>4368.28</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1502.28</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1497.24</v>
-      </c>
+        <v>22403.68</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1509.7</v>
+        <v>22372.24</v>
       </c>
       <c r="E10" t="n">
-        <v>1502.12</v>
+        <v>22386.99</v>
       </c>
       <c r="F10" t="n">
-        <v>1498.89</v>
+        <v>22380.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1499.88</v>
+        <v>22450.62</v>
+      </c>
+      <c r="H10" t="n">
+        <v>22360.47</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22432.71</v>
+      </c>
+      <c r="J10" t="n">
+        <v>22356.65</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22458.04</v>
+      </c>
+      <c r="L10" t="n">
+        <v>22435.55</v>
+      </c>
+      <c r="M10" t="n">
+        <v>22382.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1998.32</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1997.47</v>
-      </c>
+        <v>1499.41</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>2010.63</v>
+        <v>1500.77</v>
       </c>
       <c r="E11" t="n">
-        <v>2000.15</v>
+        <v>1498.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1998.55</v>
+        <v>1501.91</v>
       </c>
       <c r="G11" t="n">
-        <v>1997.93</v>
+        <v>1497.66</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1497.98</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1498.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1499.57</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1498.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1499.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1502.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>155960.75</v>
-      </c>
-      <c r="C12" t="n">
-        <v>156150.29</v>
-      </c>
+        <v>1999.3</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>156994.84</v>
+        <v>1997.59</v>
       </c>
       <c r="E12" t="n">
-        <v>155990.27</v>
+        <v>2001.96</v>
       </c>
       <c r="F12" t="n">
-        <v>154877.79</v>
+        <v>2002.54</v>
       </c>
       <c r="G12" t="n">
-        <v>149845.27</v>
+        <v>1998.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2001.01</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2000.67</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2001.64</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2001.01</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2001.61</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1998.32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37712.23</v>
-      </c>
-      <c r="C13" t="n">
-        <v>38094.23</v>
-      </c>
+        <v>165125.55</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>38290.94</v>
+        <v>162583.19</v>
       </c>
       <c r="E13" t="n">
-        <v>38151.8</v>
+        <v>160823.89</v>
       </c>
       <c r="F13" t="n">
-        <v>37007.83</v>
+        <v>160754.6</v>
       </c>
       <c r="G13" t="n">
-        <v>33998.51</v>
+        <v>160719.76</v>
+      </c>
+      <c r="H13" t="n">
+        <v>155757.97</v>
+      </c>
+      <c r="I13" t="n">
+        <v>156120.24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>155674.26</v>
+      </c>
+      <c r="K13" t="n">
+        <v>155867.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>156169.96</v>
+      </c>
+      <c r="M13" t="n">
+        <v>155960.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32090.2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>28954.99</v>
-      </c>
+        <v>37898.77</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>29121.35</v>
+        <v>37991.26</v>
       </c>
       <c r="E14" t="n">
-        <v>25810.83</v>
+        <v>37816.13</v>
       </c>
       <c r="F14" t="n">
-        <v>25809.64</v>
+        <v>38053.34</v>
       </c>
       <c r="G14" t="n">
-        <v>25745.69</v>
+        <v>37697.53</v>
+      </c>
+      <c r="H14" t="n">
+        <v>38063.69</v>
+      </c>
+      <c r="I14" t="n">
+        <v>37748.19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>37878.86</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37869.47</v>
+      </c>
+      <c r="L14" t="n">
+        <v>37660.69</v>
+      </c>
+      <c r="M14" t="n">
+        <v>37712.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29623.93</v>
-      </c>
-      <c r="C15" t="n">
-        <v>24412.96</v>
-      </c>
+        <v>30554.19</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>24651.18</v>
+        <v>33629.15</v>
       </c>
       <c r="E15" t="n">
-        <v>24599.16</v>
+        <v>36523.18</v>
       </c>
       <c r="F15" t="n">
-        <v>24308.31</v>
+        <v>38285.1</v>
       </c>
       <c r="G15" t="n">
-        <v>24476.48</v>
+        <v>38206.74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>38256.88</v>
+      </c>
+      <c r="I15" t="n">
+        <v>38498.33</v>
+      </c>
+      <c r="J15" t="n">
+        <v>38495.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>38419.34</v>
+      </c>
+      <c r="L15" t="n">
+        <v>34989.88</v>
+      </c>
+      <c r="M15" t="n">
+        <v>32090.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43878.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>44035.91</v>
-      </c>
+        <v>30759.08</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>43809.41</v>
+        <v>34718.95</v>
       </c>
       <c r="E16" t="n">
-        <v>40537.26</v>
+        <v>35403.14</v>
       </c>
       <c r="F16" t="n">
-        <v>41505.8</v>
+        <v>35401.95</v>
       </c>
       <c r="G16" t="n">
-        <v>43699.96</v>
+        <v>34535.14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>34540.86</v>
+      </c>
+      <c r="I16" t="n">
+        <v>34438.21</v>
+      </c>
+      <c r="J16" t="n">
+        <v>34361.84</v>
+      </c>
+      <c r="K16" t="n">
+        <v>34339.72</v>
+      </c>
+      <c r="L16" t="n">
+        <v>31381.83</v>
+      </c>
+      <c r="M16" t="n">
+        <v>29623.93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33374.46</v>
-      </c>
-      <c r="C17" t="n">
-        <v>26364.24</v>
-      </c>
+        <v>40873.12</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>26521.44</v>
+        <v>41857.73</v>
       </c>
       <c r="E17" t="n">
-        <v>24882.12</v>
+        <v>44642.58</v>
       </c>
       <c r="F17" t="n">
-        <v>24930.46</v>
+        <v>44589.26</v>
       </c>
       <c r="G17" t="n">
-        <v>26473.35</v>
+        <v>44749.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>45013.35</v>
+      </c>
+      <c r="I17" t="n">
+        <v>44836.54</v>
+      </c>
+      <c r="J17" t="n">
+        <v>44745.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>44944.73</v>
+      </c>
+      <c r="L17" t="n">
+        <v>44953.49</v>
+      </c>
+      <c r="M17" t="n">
+        <v>43878.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30986.35</v>
+        <v>33306.76</v>
       </c>
       <c r="C18" t="n">
-        <v>30999.67</v>
+        <v>33383.37</v>
       </c>
       <c r="D18" t="n">
-        <v>31109.83</v>
+        <v>33368.39</v>
       </c>
       <c r="E18" t="n">
-        <v>30159.76</v>
+        <v>33348.79</v>
       </c>
       <c r="F18" t="n">
-        <v>29996.12</v>
+        <v>33228.91</v>
       </c>
       <c r="G18" t="n">
-        <v>30708.89</v>
+        <v>33349.74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>33356.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>33091.15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>33379.58</v>
+      </c>
+      <c r="K18" t="n">
+        <v>33098.67</v>
+      </c>
+      <c r="L18" t="n">
+        <v>33337.84</v>
+      </c>
+      <c r="M18" t="n">
+        <v>33374.46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2696.23</v>
+        <v>55950.03</v>
       </c>
       <c r="C19" t="n">
-        <v>2669.68</v>
+        <v>56011.95</v>
       </c>
       <c r="D19" t="n">
-        <v>2692.33</v>
+        <v>30976.4</v>
       </c>
       <c r="E19" t="n">
-        <v>2660.87</v>
+        <v>30942.81</v>
       </c>
       <c r="F19" t="n">
-        <v>2674.25</v>
+        <v>30993.23</v>
       </c>
       <c r="G19" t="n">
-        <v>2675.82</v>
+        <v>30943.63</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30921.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30929.58</v>
+      </c>
+      <c r="J19" t="n">
+        <v>30980.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>30946.68</v>
+      </c>
+      <c r="L19" t="n">
+        <v>30990.12</v>
+      </c>
+      <c r="M19" t="n">
+        <v>30986.35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>404.22</v>
+        <v>2695.08</v>
       </c>
       <c r="C20" t="n">
-        <v>392.62</v>
+        <v>2677.9</v>
       </c>
       <c r="D20" t="n">
-        <v>400.31</v>
+        <v>2698.1</v>
       </c>
       <c r="E20" t="n">
-        <v>394.85</v>
+        <v>2687.91</v>
       </c>
       <c r="F20" t="n">
-        <v>400.72</v>
+        <v>2693.21</v>
       </c>
       <c r="G20" t="n">
-        <v>391.83</v>
+        <v>2671.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2673.92</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2702.78</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2698.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2698.32</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2663.76</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2696.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>695.6</v>
+        <v>403.28</v>
       </c>
       <c r="C21" t="n">
-        <v>696.37</v>
+        <v>404.84</v>
       </c>
       <c r="D21" t="n">
-        <v>707.27</v>
+        <v>398.09</v>
       </c>
       <c r="E21" t="n">
-        <v>691.55</v>
+        <v>402.27</v>
       </c>
       <c r="F21" t="n">
-        <v>735.84</v>
+        <v>396.69</v>
       </c>
       <c r="G21" t="n">
-        <v>742.88</v>
+        <v>395.66</v>
+      </c>
+      <c r="H21" t="n">
+        <v>403.27</v>
+      </c>
+      <c r="I21" t="n">
+        <v>404.05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>404.42</v>
+      </c>
+      <c r="K21" t="n">
+        <v>396.87</v>
+      </c>
+      <c r="L21" t="n">
+        <v>404.47</v>
+      </c>
+      <c r="M21" t="n">
+        <v>404.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19072.33</v>
+        <v>3706.03</v>
       </c>
       <c r="C22" t="n">
-        <v>19051.22</v>
+        <v>3689.54</v>
       </c>
       <c r="D22" t="n">
-        <v>19019.15</v>
+        <v>3662.78</v>
       </c>
       <c r="E22" t="n">
-        <v>18919.72</v>
+        <v>3721.6</v>
       </c>
       <c r="F22" t="n">
-        <v>18996.1</v>
+        <v>3694.94</v>
       </c>
       <c r="G22" t="n">
-        <v>18946.84</v>
+        <v>3651.86</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3713.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3662.64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2689.35</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1722.79</v>
+      </c>
+      <c r="L22" t="n">
+        <v>781.61</v>
+      </c>
+      <c r="M22" t="n">
+        <v>695.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1445.93</v>
+        <v>23177.7</v>
       </c>
       <c r="C23" t="n">
-        <v>1284.2</v>
+        <v>23156.3</v>
       </c>
       <c r="D23" t="n">
-        <v>1290.84</v>
+        <v>21101.67</v>
       </c>
       <c r="E23" t="n">
-        <v>1282.1</v>
+        <v>21048.02</v>
       </c>
       <c r="F23" t="n">
-        <v>1285.16</v>
+        <v>21023.45</v>
       </c>
       <c r="G23" t="n">
-        <v>1285.77</v>
+        <v>21029.88</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21151.47</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20999.31</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21143.27</v>
+      </c>
+      <c r="K23" t="n">
+        <v>19168.81</v>
+      </c>
+      <c r="L23" t="n">
+        <v>18928.74</v>
+      </c>
+      <c r="M23" t="n">
+        <v>19072.33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3022.86</v>
+        <v>1258.44</v>
       </c>
       <c r="C24" t="n">
-        <v>2968.5</v>
+        <v>1258.12</v>
       </c>
       <c r="D24" t="n">
-        <v>3021.41</v>
+        <v>1446.57</v>
       </c>
       <c r="E24" t="n">
-        <v>3034.1</v>
+        <v>1441.21</v>
       </c>
       <c r="F24" t="n">
-        <v>3032.2</v>
+        <v>1442.34</v>
       </c>
       <c r="G24" t="n">
-        <v>3027.5</v>
+        <v>1445.88</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1446.63</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1447.01</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1441.91</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1441.28</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1441.28</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1445.93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5640.85</v>
+        <v>5990.75</v>
       </c>
       <c r="C25" t="n">
-        <v>5622.13</v>
+        <v>6017.62</v>
       </c>
       <c r="D25" t="n">
-        <v>5642.56</v>
+        <v>5980.37</v>
       </c>
       <c r="E25" t="n">
-        <v>5626.6</v>
+        <v>5980.08</v>
       </c>
       <c r="F25" t="n">
-        <v>5661.06</v>
+        <v>5229.7</v>
       </c>
       <c r="G25" t="n">
-        <v>5660.75</v>
+        <v>5184.27</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5188.29</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5179.12</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5182.71</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5216.69</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5177.12</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3022.86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18177.85</v>
+        <v>5649.08</v>
       </c>
       <c r="C26" t="n">
-        <v>18235.33</v>
+        <v>5627.43</v>
       </c>
       <c r="D26" t="n">
-        <v>18350.29</v>
+        <v>5654.42</v>
       </c>
       <c r="E26" t="n">
-        <v>18188.39</v>
+        <v>5622.74</v>
       </c>
       <c r="F26" t="n">
-        <v>18176.9</v>
+        <v>5651.78</v>
       </c>
       <c r="G26" t="n">
-        <v>18140.67</v>
+        <v>5611.11</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5613.41</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5639.96</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5626.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5658.93</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5661.26</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5640.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7647.51</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7574.53</v>
-      </c>
+        <v>18238.66</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>7632.69</v>
+        <v>18268.14</v>
       </c>
       <c r="E27" t="n">
-        <v>7682.94</v>
+        <v>18216.2</v>
       </c>
       <c r="F27" t="n">
-        <v>7584.13</v>
+        <v>18276.34</v>
       </c>
       <c r="G27" t="n">
-        <v>7763.53</v>
+        <v>18192.71</v>
+      </c>
+      <c r="H27" t="n">
+        <v>18166.97</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18162.51</v>
+      </c>
+      <c r="J27" t="n">
+        <v>18242.59</v>
+      </c>
+      <c r="K27" t="n">
+        <v>18216.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>18227.99</v>
+      </c>
+      <c r="M27" t="n">
+        <v>18177.85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8875.540000000001</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>7691.68</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7602.22</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7578.49</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7504.64</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7585.22</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7512.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7594.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7591.95</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7594.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7624.38</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7522.77</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7647.51</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>389900.25</v>
+        <v>8934.290000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>389702.22</v>
+        <v>8916.5</v>
       </c>
       <c r="D29" t="n">
-        <v>392463.52</v>
+        <v>8881.700000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>390366.38</v>
+        <v>8932.91</v>
       </c>
       <c r="F29" t="n">
-        <v>389270.2</v>
+        <v>8941.709999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>390346.29</v>
+        <v>8932.34</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8944.799999999999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8918.43</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8949.84</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8909.690000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8870.02</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8875.540000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>75497.16</v>
+        <v>353937.75</v>
       </c>
       <c r="C30" t="n">
-        <v>75755.25999999999</v>
+        <v>353831.64</v>
       </c>
       <c r="D30" t="n">
-        <v>76017.89999999999</v>
-      </c>
-      <c r="E30" t="n">
-        <v>75685.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>75523.21000000001</v>
-      </c>
-      <c r="G30" t="n">
-        <v>75500.03999999999</v>
-      </c>
+        <v>353973.15</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2716.08</v>
+        <v>387050.49</v>
       </c>
       <c r="C31" t="n">
-        <v>2706.74</v>
+        <v>387147.47</v>
       </c>
       <c r="D31" t="n">
-        <v>2727.72</v>
+        <v>386826.43</v>
       </c>
       <c r="E31" t="n">
-        <v>2704.49</v>
+        <v>386942.99</v>
       </c>
       <c r="F31" t="n">
-        <v>2690.09</v>
+        <v>387250.54</v>
       </c>
       <c r="G31" t="n">
-        <v>2693.61</v>
+        <v>386781.16</v>
+      </c>
+      <c r="H31" t="n">
+        <v>386893.05</v>
+      </c>
+      <c r="I31" t="n">
+        <v>386986.83</v>
+      </c>
+      <c r="J31" t="n">
+        <v>389952.01</v>
+      </c>
+      <c r="K31" t="n">
+        <v>390286.46</v>
+      </c>
+      <c r="L31" t="n">
+        <v>389585.79</v>
+      </c>
+      <c r="M31" t="n">
+        <v>389900.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36524.41</v>
+        <v>75667.28</v>
       </c>
       <c r="C32" t="n">
-        <v>36490.87</v>
+        <v>75569.42</v>
       </c>
       <c r="D32" t="n">
-        <v>36399.95</v>
+        <v>75861.58</v>
       </c>
       <c r="E32" t="n">
-        <v>35573.74</v>
+        <v>75820.89999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>34793.98</v>
+        <v>75582.03999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>34793.79</v>
+        <v>75574.28999999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>75617</v>
+      </c>
+      <c r="I32" t="n">
+        <v>75896.03999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>75927.67</v>
+      </c>
+      <c r="K32" t="n">
+        <v>75645.41</v>
+      </c>
+      <c r="L32" t="n">
+        <v>75564.46000000001</v>
+      </c>
+      <c r="M32" t="n">
+        <v>75497.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2696.38</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2705.63</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2721.55</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2705.11</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2698.84</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2736.93</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2707.04</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2732.38</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2734.48</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2736.13</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2725.05</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2716.08</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>46734.13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>51139.79</v>
+      </c>
+      <c r="D34" t="n">
+        <v>47654.34</v>
+      </c>
+      <c r="E34" t="n">
+        <v>37560.88</v>
+      </c>
+      <c r="F34" t="n">
+        <v>37582.44</v>
+      </c>
+      <c r="G34" t="n">
+        <v>37536.45</v>
+      </c>
+      <c r="H34" t="n">
+        <v>37382.78</v>
+      </c>
+      <c r="I34" t="n">
+        <v>37381.51</v>
+      </c>
+      <c r="J34" t="n">
+        <v>37449.91</v>
+      </c>
+      <c r="K34" t="n">
+        <v>37347.06</v>
+      </c>
+      <c r="L34" t="n">
+        <v>37102.92</v>
+      </c>
+      <c r="M34" t="n">
+        <v>36524.41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B35" t="n">
+        <v>1495492.07</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1073935.54</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1477284.63</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1126826.49</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1127473.26</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1126093.49</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1121483.35</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1121445.37</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1123497.38</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1120411.81</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1113087.47</v>
+      </c>
+      <c r="M35" t="n">
         <v>1095732.16</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1058235.2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1055598.45</v>
-      </c>
-      <c r="E33" t="n">
-        <v>996064.75</v>
-      </c>
-      <c r="F33" t="n">
-        <v>974231.51</v>
-      </c>
-      <c r="G33" t="n">
-        <v>939432.2</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,41 +572,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50366.13</v>
+        <v>40604.9</v>
       </c>
       <c r="C2" t="n">
-        <v>50309.35</v>
+        <v>36391.46</v>
       </c>
       <c r="D2" t="n">
-        <v>50338.94</v>
+        <v>36850.23</v>
       </c>
       <c r="E2" t="n">
-        <v>50067.13</v>
+        <v>6396.66</v>
       </c>
       <c r="F2" t="n">
-        <v>50388.99</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50210.38</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50301.98</v>
-      </c>
-      <c r="I2" t="n">
-        <v>50256.69</v>
-      </c>
-      <c r="J2" t="n">
-        <v>50036.95</v>
-      </c>
-      <c r="K2" t="n">
-        <v>50199.31</v>
-      </c>
-      <c r="L2" t="n">
-        <v>50411.95</v>
-      </c>
-      <c r="M2" t="n">
-        <v>40604.9</v>
-      </c>
+        <v>6404.4</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,41 +615,71 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2379.69</v>
+        <v>2386.7</v>
       </c>
       <c r="C3" t="n">
-        <v>2383.3</v>
+        <v>2415.86</v>
       </c>
       <c r="D3" t="n">
-        <v>2409.47</v>
+        <v>2417.13</v>
       </c>
       <c r="E3" t="n">
-        <v>2427.68</v>
+        <v>2414.52</v>
       </c>
       <c r="F3" t="n">
-        <v>2394.25</v>
+        <v>2410.86</v>
       </c>
       <c r="G3" t="n">
-        <v>2391.45</v>
+        <v>2371.92</v>
       </c>
       <c r="H3" t="n">
-        <v>2400.94</v>
+        <v>2397.98</v>
       </c>
       <c r="I3" t="n">
-        <v>2370.3</v>
+        <v>2400.83</v>
       </c>
       <c r="J3" t="n">
-        <v>2389.68</v>
+        <v>2392.79</v>
       </c>
       <c r="K3" t="n">
-        <v>2389.05</v>
+        <v>2368.96</v>
       </c>
       <c r="L3" t="n">
-        <v>2394.17</v>
+        <v>2397.58</v>
       </c>
       <c r="M3" t="n">
-        <v>2386.7</v>
-      </c>
+        <v>2357.68</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2361.44</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2378.43</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2445.35</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2379.89</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2378.26</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2370.47</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2424.31</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2025.09</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -588,40 +688,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6511.13</v>
+        <v>6548.15</v>
       </c>
       <c r="C4" t="n">
-        <v>6537.3</v>
+        <v>6574</v>
       </c>
       <c r="D4" t="n">
-        <v>6539.81</v>
+        <v>6546.25</v>
       </c>
       <c r="E4" t="n">
-        <v>6555.13</v>
+        <v>6549.84</v>
       </c>
       <c r="F4" t="n">
-        <v>6503.67</v>
+        <v>6538.53</v>
       </c>
       <c r="G4" t="n">
-        <v>6569.21</v>
+        <v>6556.84</v>
       </c>
       <c r="H4" t="n">
-        <v>6563.06</v>
+        <v>6523.45</v>
       </c>
       <c r="I4" t="n">
-        <v>6554.49</v>
+        <v>6531.93</v>
       </c>
       <c r="J4" t="n">
-        <v>6534.86</v>
+        <v>6525.95</v>
       </c>
       <c r="K4" t="n">
-        <v>6509.23</v>
+        <v>6463.37</v>
       </c>
       <c r="L4" t="n">
-        <v>6511</v>
+        <v>6555.83</v>
       </c>
       <c r="M4" t="n">
-        <v>6548.15</v>
+        <v>6505.39</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6487.52</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6561.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6591.22</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6454.84</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6493.48</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6589.99</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6619.23</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6585.35</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6519.43</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6568.44</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6514.36</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6586.2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6495.71</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6413.83</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +773,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18998.69</v>
+        <v>18997</v>
       </c>
       <c r="C5" t="n">
-        <v>19092.07</v>
+        <v>18994.24</v>
       </c>
       <c r="D5" t="n">
-        <v>18943.2</v>
+        <v>19301.18</v>
       </c>
       <c r="E5" t="n">
-        <v>19262.34</v>
+        <v>19053.06</v>
       </c>
       <c r="F5" t="n">
-        <v>18968.65</v>
+        <v>19162.21</v>
       </c>
       <c r="G5" t="n">
-        <v>19325.79</v>
+        <v>19063.21</v>
       </c>
       <c r="H5" t="n">
-        <v>18934.95</v>
+        <v>19161.13</v>
       </c>
       <c r="I5" t="n">
-        <v>19276.63</v>
+        <v>19289.54</v>
       </c>
       <c r="J5" t="n">
-        <v>19315.39</v>
+        <v>19177.84</v>
       </c>
       <c r="K5" t="n">
-        <v>19020.13</v>
+        <v>19165.8</v>
       </c>
       <c r="L5" t="n">
-        <v>19212.03</v>
+        <v>18970.73</v>
       </c>
       <c r="M5" t="n">
-        <v>18997</v>
+        <v>18967.85</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19295.12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19302.31</v>
+      </c>
+      <c r="P5" t="n">
+        <v>19220.36</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19210.69</v>
+      </c>
+      <c r="R5" t="n">
+        <v>19131.16</v>
+      </c>
+      <c r="S5" t="n">
+        <v>19123.21</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18822.6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>19203.72</v>
+      </c>
+      <c r="V5" t="n">
+        <v>19237.49</v>
+      </c>
+      <c r="W5" t="n">
+        <v>19078.68</v>
+      </c>
+      <c r="X5" t="n">
+        <v>19106.66</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>19209.32</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>19072.34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>18981.51</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +858,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8085.95</v>
+        <v>9107.99</v>
       </c>
       <c r="C6" t="n">
-        <v>9069.309999999999</v>
+        <v>9199.969999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8699.67</v>
+        <v>9140.610000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9033.92</v>
+        <v>8684.959999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8657.01</v>
+        <v>9169.26</v>
       </c>
       <c r="G6" t="n">
-        <v>8725.639999999999</v>
+        <v>7948.28</v>
       </c>
       <c r="H6" t="n">
-        <v>8790.110000000001</v>
+        <v>8031.25</v>
       </c>
       <c r="I6" t="n">
-        <v>8017.74</v>
+        <v>8261.209999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>8654.469999999999</v>
+        <v>8944.6</v>
       </c>
       <c r="K6" t="n">
-        <v>8350.809999999999</v>
+        <v>9256.389999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>8595.83</v>
+        <v>8467.040000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>9107.99</v>
+        <v>8112.59</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8673.59</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8692.559999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9013.790000000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7875.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9142.860000000001</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9107.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8219.59</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8349.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8092.46</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8591.299999999999</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8646.690000000001</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8840.76</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8823.799999999999</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8676.43</v>
       </c>
     </row>
     <row r="7">
@@ -717,41 +943,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18483.8</v>
+        <v>17133.25</v>
       </c>
       <c r="C7" t="n">
-        <v>18544.26</v>
+        <v>7226.45</v>
       </c>
       <c r="D7" t="n">
-        <v>18700.05</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17202.88</v>
-      </c>
-      <c r="F7" t="n">
-        <v>17059.13</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17204.22</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17225.21</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17328.78</v>
-      </c>
-      <c r="J7" t="n">
-        <v>17218.55</v>
-      </c>
-      <c r="K7" t="n">
-        <v>17309.89</v>
-      </c>
-      <c r="L7" t="n">
-        <v>17246.51</v>
-      </c>
-      <c r="M7" t="n">
-        <v>17133.25</v>
-      </c>
+        <v>4386.99</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -760,1141 +982,2019 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68831.62</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>75652.34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>75811.60000000001</v>
+      </c>
       <c r="D8" t="n">
-        <v>75604.78</v>
+        <v>70430.05</v>
       </c>
       <c r="E8" t="n">
-        <v>75863.06</v>
+        <v>59701.78</v>
       </c>
       <c r="F8" t="n">
-        <v>75843.63</v>
+        <v>41196.56</v>
       </c>
       <c r="G8" t="n">
-        <v>75797.59</v>
-      </c>
-      <c r="H8" t="n">
-        <v>75383.28999999999</v>
-      </c>
-      <c r="I8" t="n">
-        <v>75723.86</v>
-      </c>
-      <c r="J8" t="n">
-        <v>75385.23</v>
-      </c>
-      <c r="K8" t="n">
-        <v>75467.72</v>
-      </c>
-      <c r="L8" t="n">
-        <v>75741.38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>75652.34</v>
-      </c>
+        <v>21215.23</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4368.28</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>22382.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22455.82</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22540.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22392.77</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21386.44</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16655.23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16579.34</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16616.46</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16671.57</v>
+      </c>
+      <c r="K9" t="n">
+        <v>16597.23</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16672.59</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16630.21</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16680.86</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16659.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>16678.67</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>16617.71</v>
+      </c>
+      <c r="R9" t="n">
+        <v>16656.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>16583.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>16669</v>
+      </c>
+      <c r="U9" t="n">
+        <v>16642.97</v>
+      </c>
+      <c r="V9" t="n">
+        <v>16641.6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>16684.05</v>
+      </c>
+      <c r="X9" t="n">
+        <v>16575.77</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16087.83</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22403.68</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>1502.28</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1497.24</v>
+      </c>
       <c r="D10" t="n">
-        <v>22372.24</v>
+        <v>1509.7</v>
       </c>
       <c r="E10" t="n">
-        <v>22386.99</v>
+        <v>1502.12</v>
       </c>
       <c r="F10" t="n">
-        <v>22380.29</v>
+        <v>1498.89</v>
       </c>
       <c r="G10" t="n">
-        <v>22450.62</v>
+        <v>1499.88</v>
       </c>
       <c r="H10" t="n">
-        <v>22360.47</v>
+        <v>1499.53</v>
       </c>
       <c r="I10" t="n">
-        <v>22432.71</v>
+        <v>1498.45</v>
       </c>
       <c r="J10" t="n">
-        <v>22356.65</v>
+        <v>1500.3</v>
       </c>
       <c r="K10" t="n">
-        <v>22458.04</v>
+        <v>1497.67</v>
       </c>
       <c r="L10" t="n">
-        <v>22435.55</v>
+        <v>1500.39</v>
       </c>
       <c r="M10" t="n">
-        <v>22382.3</v>
+        <v>1501.56</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1497.58</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1497.59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1502.74</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1501.29</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1502.43</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1501.07</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1501.08</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1499.6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1499.27</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1502.9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1497.37</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1498.6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1499.47</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1498.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1499.41</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>1998.32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1997.47</v>
+      </c>
       <c r="D11" t="n">
-        <v>1500.77</v>
+        <v>2010.63</v>
       </c>
       <c r="E11" t="n">
-        <v>1498.3</v>
+        <v>2000.15</v>
       </c>
       <c r="F11" t="n">
-        <v>1501.91</v>
+        <v>1998.55</v>
       </c>
       <c r="G11" t="n">
-        <v>1497.66</v>
+        <v>1997.93</v>
       </c>
       <c r="H11" t="n">
-        <v>1497.98</v>
+        <v>1998.89</v>
       </c>
       <c r="I11" t="n">
-        <v>1498.25</v>
+        <v>2003.03</v>
       </c>
       <c r="J11" t="n">
-        <v>1499.57</v>
+        <v>2003.67</v>
       </c>
       <c r="K11" t="n">
-        <v>1498.75</v>
+        <v>1999.28</v>
       </c>
       <c r="L11" t="n">
-        <v>1499.31</v>
+        <v>2001.66</v>
       </c>
       <c r="M11" t="n">
-        <v>1502.28</v>
+        <v>1999.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1997.22</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1999.11</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2001.28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2003.78</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2002.56</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2003.04</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2000.42</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2003.12</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1996.35</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2000.36</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1999.58</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1997.65</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1996.92</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1997.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1999.3</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>155960.75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>156150.29</v>
+      </c>
       <c r="D12" t="n">
-        <v>1997.59</v>
+        <v>156994.84</v>
       </c>
       <c r="E12" t="n">
-        <v>2001.96</v>
+        <v>155990.27</v>
       </c>
       <c r="F12" t="n">
-        <v>2002.54</v>
+        <v>154877.79</v>
       </c>
       <c r="G12" t="n">
-        <v>1998.7</v>
+        <v>149845.27</v>
       </c>
       <c r="H12" t="n">
-        <v>2001.01</v>
+        <v>149954.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2000.67</v>
+        <v>150352.99</v>
       </c>
       <c r="J12" t="n">
-        <v>2001.64</v>
+        <v>150051.05</v>
       </c>
       <c r="K12" t="n">
-        <v>2001.01</v>
+        <v>150447.34</v>
       </c>
       <c r="L12" t="n">
-        <v>2001.61</v>
+        <v>150223.73</v>
       </c>
       <c r="M12" t="n">
-        <v>1998.32</v>
+        <v>150439.46</v>
+      </c>
+      <c r="N12" t="n">
+        <v>150452.67</v>
+      </c>
+      <c r="O12" t="n">
+        <v>150444.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>150272.55</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>150108.48</v>
+      </c>
+      <c r="R12" t="n">
+        <v>150040.89</v>
+      </c>
+      <c r="S12" t="n">
+        <v>150186.37</v>
+      </c>
+      <c r="T12" t="n">
+        <v>150074.99</v>
+      </c>
+      <c r="U12" t="n">
+        <v>150372.23</v>
+      </c>
+      <c r="V12" t="n">
+        <v>150187.29</v>
+      </c>
+      <c r="W12" t="n">
+        <v>150337.35</v>
+      </c>
+      <c r="X12" t="n">
+        <v>150105.39</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>150333.17</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>150095.24</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>149874.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165125.55</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>37712.23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>38094.23</v>
+      </c>
       <c r="D13" t="n">
-        <v>162583.19</v>
+        <v>38290.94</v>
       </c>
       <c r="E13" t="n">
-        <v>160823.89</v>
+        <v>38151.8</v>
       </c>
       <c r="F13" t="n">
-        <v>160754.6</v>
+        <v>37007.83</v>
       </c>
       <c r="G13" t="n">
-        <v>160719.76</v>
+        <v>33998.51</v>
       </c>
       <c r="H13" t="n">
-        <v>155757.97</v>
+        <v>34047.09</v>
       </c>
       <c r="I13" t="n">
-        <v>156120.24</v>
+        <v>34098.97</v>
       </c>
       <c r="J13" t="n">
-        <v>155674.26</v>
+        <v>34010.29</v>
       </c>
       <c r="K13" t="n">
-        <v>155867.45</v>
+        <v>34313.05</v>
       </c>
       <c r="L13" t="n">
-        <v>156169.96</v>
+        <v>33965.42</v>
       </c>
       <c r="M13" t="n">
-        <v>155960.75</v>
+        <v>34041.37</v>
+      </c>
+      <c r="N13" t="n">
+        <v>31296.41</v>
+      </c>
+      <c r="O13" t="n">
+        <v>31298.95</v>
+      </c>
+      <c r="P13" t="n">
+        <v>31648.86</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>31595.66</v>
+      </c>
+      <c r="R13" t="n">
+        <v>31399.13</v>
+      </c>
+      <c r="S13" t="n">
+        <v>31649.92</v>
+      </c>
+      <c r="T13" t="n">
+        <v>31744.72</v>
+      </c>
+      <c r="U13" t="n">
+        <v>31750</v>
+      </c>
+      <c r="V13" t="n">
+        <v>31681.32</v>
+      </c>
+      <c r="W13" t="n">
+        <v>31558.47</v>
+      </c>
+      <c r="X13" t="n">
+        <v>31569.17</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>31716.91</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>31558.04</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>31322.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37898.77</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>32090.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>28954.99</v>
+      </c>
       <c r="D14" t="n">
-        <v>37991.26</v>
+        <v>29121.35</v>
       </c>
       <c r="E14" t="n">
-        <v>37816.13</v>
+        <v>25810.83</v>
       </c>
       <c r="F14" t="n">
-        <v>38053.34</v>
+        <v>25809.64</v>
       </c>
       <c r="G14" t="n">
-        <v>37697.53</v>
+        <v>25745.69</v>
       </c>
       <c r="H14" t="n">
-        <v>38063.69</v>
+        <v>25786.12</v>
       </c>
       <c r="I14" t="n">
-        <v>37748.19</v>
+        <v>25723.66</v>
       </c>
       <c r="J14" t="n">
-        <v>37878.86</v>
+        <v>26080.15</v>
       </c>
       <c r="K14" t="n">
-        <v>37869.47</v>
+        <v>25911.43</v>
       </c>
       <c r="L14" t="n">
-        <v>37660.69</v>
+        <v>25855.93</v>
       </c>
       <c r="M14" t="n">
-        <v>37712.23</v>
-      </c>
+        <v>23247.27</v>
+      </c>
+      <c r="N14" t="n">
+        <v>16740.76</v>
+      </c>
+      <c r="O14" t="n">
+        <v>14195.88</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3239.4</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30554.19</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>29623.93</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24412.96</v>
+      </c>
       <c r="D15" t="n">
-        <v>33629.15</v>
+        <v>24651.18</v>
       </c>
       <c r="E15" t="n">
-        <v>36523.18</v>
+        <v>24599.16</v>
       </c>
       <c r="F15" t="n">
-        <v>38285.1</v>
+        <v>24308.31</v>
       </c>
       <c r="G15" t="n">
-        <v>38206.74</v>
+        <v>24476.48</v>
       </c>
       <c r="H15" t="n">
-        <v>38256.88</v>
+        <v>24378.22</v>
       </c>
       <c r="I15" t="n">
-        <v>38498.33</v>
+        <v>24649.94</v>
       </c>
       <c r="J15" t="n">
-        <v>38495.7</v>
+        <v>24637.52</v>
       </c>
       <c r="K15" t="n">
-        <v>38419.34</v>
+        <v>24581.6</v>
       </c>
       <c r="L15" t="n">
-        <v>34989.88</v>
+        <v>24556.35</v>
       </c>
       <c r="M15" t="n">
-        <v>32090.2</v>
-      </c>
+        <v>21706.88</v>
+      </c>
+      <c r="N15" t="n">
+        <v>18180.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>15309.75</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4610.52</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2929.6</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30759.08</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>43878.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>44035.91</v>
+      </c>
       <c r="D16" t="n">
-        <v>34718.95</v>
+        <v>43809.41</v>
       </c>
       <c r="E16" t="n">
-        <v>35403.14</v>
+        <v>40537.26</v>
       </c>
       <c r="F16" t="n">
-        <v>35401.95</v>
+        <v>41505.8</v>
       </c>
       <c r="G16" t="n">
-        <v>34535.14</v>
+        <v>43699.96</v>
       </c>
       <c r="H16" t="n">
-        <v>34540.86</v>
+        <v>44253.19</v>
       </c>
       <c r="I16" t="n">
-        <v>34438.21</v>
+        <v>53738.18</v>
       </c>
       <c r="J16" t="n">
-        <v>34361.84</v>
+        <v>53972.81</v>
       </c>
       <c r="K16" t="n">
-        <v>34339.72</v>
+        <v>53646.41</v>
       </c>
       <c r="L16" t="n">
-        <v>31381.83</v>
+        <v>53992.01</v>
       </c>
       <c r="M16" t="n">
-        <v>29623.93</v>
+        <v>63590.66</v>
+      </c>
+      <c r="N16" t="n">
+        <v>64167.82</v>
+      </c>
+      <c r="O16" t="n">
+        <v>64427.75</v>
+      </c>
+      <c r="P16" t="n">
+        <v>68023.50999999999</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>69809.17</v>
+      </c>
+      <c r="R16" t="n">
+        <v>69604.16</v>
+      </c>
+      <c r="S16" t="n">
+        <v>69346.81</v>
+      </c>
+      <c r="T16" t="n">
+        <v>69452.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>72174.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>71889.3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>71828.61</v>
+      </c>
+      <c r="X16" t="n">
+        <v>72065.27</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>67915.95</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>67618</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>67863.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40873.12</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>33374.46</v>
+      </c>
+      <c r="C17" t="n">
+        <v>26364.24</v>
+      </c>
       <c r="D17" t="n">
-        <v>41857.73</v>
+        <v>26521.44</v>
       </c>
       <c r="E17" t="n">
-        <v>44642.58</v>
+        <v>24882.12</v>
       </c>
       <c r="F17" t="n">
-        <v>44589.26</v>
+        <v>24930.46</v>
       </c>
       <c r="G17" t="n">
-        <v>44749.5</v>
+        <v>26473.35</v>
       </c>
       <c r="H17" t="n">
-        <v>45013.35</v>
+        <v>26408.96</v>
       </c>
       <c r="I17" t="n">
-        <v>44836.54</v>
+        <v>37387.96</v>
       </c>
       <c r="J17" t="n">
-        <v>44745.8</v>
+        <v>37381.09</v>
       </c>
       <c r="K17" t="n">
-        <v>44944.73</v>
+        <v>37246.99</v>
       </c>
       <c r="L17" t="n">
-        <v>44953.49</v>
+        <v>37358.88</v>
       </c>
       <c r="M17" t="n">
-        <v>43878.6</v>
+        <v>41364.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>41122.41</v>
+      </c>
+      <c r="O17" t="n">
+        <v>41395.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>45200.54</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>48087.42</v>
+      </c>
+      <c r="R17" t="n">
+        <v>48310.95</v>
+      </c>
+      <c r="S17" t="n">
+        <v>48090.19</v>
+      </c>
+      <c r="T17" t="n">
+        <v>48121.31</v>
+      </c>
+      <c r="U17" t="n">
+        <v>48173.05</v>
+      </c>
+      <c r="V17" t="n">
+        <v>48328.75</v>
+      </c>
+      <c r="W17" t="n">
+        <v>48350.02</v>
+      </c>
+      <c r="X17" t="n">
+        <v>48058.47</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>47319.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>46360.04</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>46308.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33306.76</v>
+        <v>30986.35</v>
       </c>
       <c r="C18" t="n">
-        <v>33383.37</v>
+        <v>30999.67</v>
       </c>
       <c r="D18" t="n">
-        <v>33368.39</v>
+        <v>31109.83</v>
       </c>
       <c r="E18" t="n">
-        <v>33348.79</v>
+        <v>30159.76</v>
       </c>
       <c r="F18" t="n">
-        <v>33228.91</v>
+        <v>29996.12</v>
       </c>
       <c r="G18" t="n">
-        <v>33349.74</v>
+        <v>30708.89</v>
       </c>
       <c r="H18" t="n">
-        <v>33356.5</v>
+        <v>33039.14</v>
       </c>
       <c r="I18" t="n">
-        <v>33091.15</v>
+        <v>30402.25</v>
       </c>
       <c r="J18" t="n">
-        <v>33379.58</v>
+        <v>25854.67</v>
       </c>
       <c r="K18" t="n">
-        <v>33098.67</v>
+        <v>30870.27</v>
       </c>
       <c r="L18" t="n">
-        <v>33337.84</v>
+        <v>29153.73</v>
       </c>
       <c r="M18" t="n">
-        <v>33374.46</v>
+        <v>27052.73</v>
+      </c>
+      <c r="N18" t="n">
+        <v>30970.69</v>
+      </c>
+      <c r="O18" t="n">
+        <v>30947.78</v>
+      </c>
+      <c r="P18" t="n">
+        <v>30934.17</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>30906.3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>30887.37</v>
+      </c>
+      <c r="S18" t="n">
+        <v>30942.24</v>
+      </c>
+      <c r="T18" t="n">
+        <v>30966.45</v>
+      </c>
+      <c r="U18" t="n">
+        <v>30988.81</v>
+      </c>
+      <c r="V18" t="n">
+        <v>31007.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>30926.54</v>
+      </c>
+      <c r="X18" t="n">
+        <v>31018.07</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>30906.87</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>30944.57</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>30906.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55950.03</v>
+        <v>2696.23</v>
       </c>
       <c r="C19" t="n">
-        <v>56011.95</v>
+        <v>2669.68</v>
       </c>
       <c r="D19" t="n">
-        <v>30976.4</v>
+        <v>2692.33</v>
       </c>
       <c r="E19" t="n">
-        <v>30942.81</v>
+        <v>2660.87</v>
       </c>
       <c r="F19" t="n">
-        <v>30993.23</v>
+        <v>2674.25</v>
       </c>
       <c r="G19" t="n">
-        <v>30943.63</v>
+        <v>2675.82</v>
       </c>
       <c r="H19" t="n">
-        <v>30921.6</v>
+        <v>2649.12</v>
       </c>
       <c r="I19" t="n">
-        <v>30929.58</v>
+        <v>2669.94</v>
       </c>
       <c r="J19" t="n">
-        <v>30980.4</v>
+        <v>2702.69</v>
       </c>
       <c r="K19" t="n">
-        <v>30946.68</v>
+        <v>2680.95</v>
       </c>
       <c r="L19" t="n">
-        <v>30990.12</v>
+        <v>2689.05</v>
       </c>
       <c r="M19" t="n">
-        <v>30986.35</v>
+        <v>2667.11</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2701.24</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2679.43</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2644.74</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2685.49</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2670.33</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2660.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2689.78</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2706.25</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2649.31</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2683.95</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2712.2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2645.4</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2667.63</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>664.26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2695.08</v>
+        <v>404.22</v>
       </c>
       <c r="C20" t="n">
-        <v>2677.9</v>
+        <v>392.62</v>
       </c>
       <c r="D20" t="n">
-        <v>2698.1</v>
+        <v>400.31</v>
       </c>
       <c r="E20" t="n">
-        <v>2687.91</v>
+        <v>394.85</v>
       </c>
       <c r="F20" t="n">
-        <v>2693.21</v>
+        <v>400.72</v>
       </c>
       <c r="G20" t="n">
-        <v>2671.7</v>
+        <v>391.83</v>
       </c>
       <c r="H20" t="n">
-        <v>2673.92</v>
+        <v>393.48</v>
       </c>
       <c r="I20" t="n">
-        <v>2702.78</v>
+        <v>391.48</v>
       </c>
       <c r="J20" t="n">
-        <v>2698.8</v>
+        <v>400.62</v>
       </c>
       <c r="K20" t="n">
-        <v>2698.32</v>
+        <v>406.98</v>
       </c>
       <c r="L20" t="n">
-        <v>2663.76</v>
+        <v>399.02</v>
       </c>
       <c r="M20" t="n">
-        <v>2696.23</v>
+        <v>395.65</v>
+      </c>
+      <c r="N20" t="n">
+        <v>404.68</v>
+      </c>
+      <c r="O20" t="n">
+        <v>395.12</v>
+      </c>
+      <c r="P20" t="n">
+        <v>405.92</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>395.05</v>
+      </c>
+      <c r="R20" t="n">
+        <v>395.68</v>
+      </c>
+      <c r="S20" t="n">
+        <v>399.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>408.67</v>
+      </c>
+      <c r="U20" t="n">
+        <v>403.36</v>
+      </c>
+      <c r="V20" t="n">
+        <v>404.41</v>
+      </c>
+      <c r="W20" t="n">
+        <v>400.39</v>
+      </c>
+      <c r="X20" t="n">
+        <v>408.82</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>403.38</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>406.7</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>393.69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>403.28</v>
+        <v>695.6</v>
       </c>
       <c r="C21" t="n">
-        <v>404.84</v>
+        <v>696.37</v>
       </c>
       <c r="D21" t="n">
-        <v>398.09</v>
+        <v>707.27</v>
       </c>
       <c r="E21" t="n">
-        <v>402.27</v>
+        <v>691.55</v>
       </c>
       <c r="F21" t="n">
-        <v>396.69</v>
+        <v>735.84</v>
       </c>
       <c r="G21" t="n">
-        <v>395.66</v>
+        <v>742.88</v>
       </c>
       <c r="H21" t="n">
-        <v>403.27</v>
+        <v>751.0599999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>404.05</v>
+        <v>785.54</v>
       </c>
       <c r="J21" t="n">
-        <v>404.42</v>
+        <v>713.28</v>
       </c>
       <c r="K21" t="n">
-        <v>396.87</v>
+        <v>763.64</v>
       </c>
       <c r="L21" t="n">
-        <v>404.47</v>
+        <v>715.9299999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>404.22</v>
+        <v>723.9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>664.1900000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>667.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>701.71</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>783.71</v>
+      </c>
+      <c r="R21" t="n">
+        <v>655.55</v>
+      </c>
+      <c r="S21" t="n">
+        <v>638.28</v>
+      </c>
+      <c r="T21" t="n">
+        <v>642.95</v>
+      </c>
+      <c r="U21" t="n">
+        <v>647.85</v>
+      </c>
+      <c r="V21" t="n">
+        <v>661.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>728.73</v>
+      </c>
+      <c r="X21" t="n">
+        <v>622.46</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>768.74</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>803.65</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>778.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3706.03</v>
+        <v>19072.33</v>
       </c>
       <c r="C22" t="n">
-        <v>3689.54</v>
+        <v>19051.22</v>
       </c>
       <c r="D22" t="n">
-        <v>3662.78</v>
+        <v>19019.15</v>
       </c>
       <c r="E22" t="n">
-        <v>3721.6</v>
+        <v>18919.72</v>
       </c>
       <c r="F22" t="n">
-        <v>3694.94</v>
+        <v>18996.1</v>
       </c>
       <c r="G22" t="n">
-        <v>3651.86</v>
+        <v>18946.84</v>
       </c>
       <c r="H22" t="n">
-        <v>3713.4</v>
+        <v>19033.23</v>
       </c>
       <c r="I22" t="n">
-        <v>3662.64</v>
+        <v>19117.7</v>
       </c>
       <c r="J22" t="n">
-        <v>2689.35</v>
+        <v>18841.13</v>
       </c>
       <c r="K22" t="n">
-        <v>1722.79</v>
+        <v>18925.06</v>
       </c>
       <c r="L22" t="n">
-        <v>781.61</v>
+        <v>18860.04</v>
       </c>
       <c r="M22" t="n">
-        <v>695.6</v>
+        <v>18956.62</v>
+      </c>
+      <c r="N22" t="n">
+        <v>18874.18</v>
+      </c>
+      <c r="O22" t="n">
+        <v>18905.82</v>
+      </c>
+      <c r="P22" t="n">
+        <v>19063.39</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>18985.2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>18895.97</v>
+      </c>
+      <c r="S22" t="n">
+        <v>18967.97</v>
+      </c>
+      <c r="T22" t="n">
+        <v>18875.72</v>
+      </c>
+      <c r="U22" t="n">
+        <v>19105.9</v>
+      </c>
+      <c r="V22" t="n">
+        <v>18851.11</v>
+      </c>
+      <c r="W22" t="n">
+        <v>19103.76</v>
+      </c>
+      <c r="X22" t="n">
+        <v>19112.33</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>19168.61</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>18979.94</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>19049.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23177.7</v>
+        <v>1445.93</v>
       </c>
       <c r="C23" t="n">
-        <v>23156.3</v>
+        <v>1284.2</v>
       </c>
       <c r="D23" t="n">
-        <v>21101.67</v>
+        <v>1290.84</v>
       </c>
       <c r="E23" t="n">
-        <v>21048.02</v>
+        <v>1282.1</v>
       </c>
       <c r="F23" t="n">
-        <v>21023.45</v>
+        <v>1285.16</v>
       </c>
       <c r="G23" t="n">
-        <v>21029.88</v>
+        <v>1285.77</v>
       </c>
       <c r="H23" t="n">
-        <v>21151.47</v>
+        <v>1286.61</v>
       </c>
       <c r="I23" t="n">
-        <v>20999.31</v>
+        <v>1288.93</v>
       </c>
       <c r="J23" t="n">
-        <v>21143.27</v>
+        <v>1285.86</v>
       </c>
       <c r="K23" t="n">
-        <v>19168.81</v>
+        <v>1289.79</v>
       </c>
       <c r="L23" t="n">
-        <v>18928.74</v>
+        <v>1286.14</v>
       </c>
       <c r="M23" t="n">
-        <v>19072.33</v>
+        <v>1288.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1288</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1281.6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1289.28</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1288.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1283.47</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1289.59</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1275.94</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1282.82</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1288.51</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1287.12</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1217.17</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1212.33</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1212.95</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1212.82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1258.44</v>
+        <v>3022.86</v>
       </c>
       <c r="C24" t="n">
-        <v>1258.12</v>
+        <v>2968.5</v>
       </c>
       <c r="D24" t="n">
-        <v>1446.57</v>
+        <v>3021.41</v>
       </c>
       <c r="E24" t="n">
-        <v>1441.21</v>
+        <v>3034.1</v>
       </c>
       <c r="F24" t="n">
-        <v>1442.34</v>
+        <v>3032.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1445.88</v>
+        <v>3027.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1446.63</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1447.01</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1441.91</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1441.28</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1441.28</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1445.93</v>
-      </c>
+        <v>2991.11</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5990.75</v>
+        <v>5640.85</v>
       </c>
       <c r="C25" t="n">
-        <v>6017.62</v>
+        <v>5622.13</v>
       </c>
       <c r="D25" t="n">
-        <v>5980.37</v>
+        <v>5642.56</v>
       </c>
       <c r="E25" t="n">
-        <v>5980.08</v>
+        <v>5626.6</v>
       </c>
       <c r="F25" t="n">
-        <v>5229.7</v>
+        <v>5661.06</v>
       </c>
       <c r="G25" t="n">
-        <v>5184.27</v>
+        <v>5660.75</v>
       </c>
       <c r="H25" t="n">
-        <v>5188.29</v>
+        <v>5618.52</v>
       </c>
       <c r="I25" t="n">
-        <v>5179.12</v>
+        <v>5651.3</v>
       </c>
       <c r="J25" t="n">
-        <v>5182.71</v>
+        <v>5668.79</v>
       </c>
       <c r="K25" t="n">
-        <v>5216.69</v>
+        <v>5607.57</v>
       </c>
       <c r="L25" t="n">
-        <v>5177.12</v>
+        <v>5660.12</v>
       </c>
       <c r="M25" t="n">
-        <v>3022.86</v>
+        <v>5652.61</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5667.92</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5655.88</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5669.53</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5610.23</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5624.01</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5630.77</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5624.43</v>
+      </c>
+      <c r="U25" t="n">
+        <v>5642.51</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5658.8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5659.41</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5616.09</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>5624.36</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5638.23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5650.84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5649.08</v>
+        <v>18177.85</v>
       </c>
       <c r="C26" t="n">
-        <v>5627.43</v>
+        <v>18235.33</v>
       </c>
       <c r="D26" t="n">
-        <v>5654.42</v>
+        <v>18350.29</v>
       </c>
       <c r="E26" t="n">
-        <v>5622.74</v>
+        <v>18188.39</v>
       </c>
       <c r="F26" t="n">
-        <v>5651.78</v>
+        <v>18176.9</v>
       </c>
       <c r="G26" t="n">
-        <v>5611.11</v>
+        <v>18140.67</v>
       </c>
       <c r="H26" t="n">
-        <v>5613.41</v>
+        <v>18149.52</v>
       </c>
       <c r="I26" t="n">
-        <v>5639.96</v>
+        <v>18330.41</v>
       </c>
       <c r="J26" t="n">
-        <v>5626.4</v>
+        <v>18198.59</v>
       </c>
       <c r="K26" t="n">
-        <v>5658.93</v>
+        <v>18196.2</v>
       </c>
       <c r="L26" t="n">
-        <v>5661.26</v>
+        <v>18315.22</v>
       </c>
       <c r="M26" t="n">
-        <v>5640.85</v>
-      </c>
+        <v>18263.74</v>
+      </c>
+      <c r="N26" t="n">
+        <v>18183.53</v>
+      </c>
+      <c r="O26" t="n">
+        <v>18282.37</v>
+      </c>
+      <c r="P26" t="n">
+        <v>18220.57</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>18265.41</v>
+      </c>
+      <c r="R26" t="n">
+        <v>18279.17</v>
+      </c>
+      <c r="S26" t="n">
+        <v>18231.34</v>
+      </c>
+      <c r="T26" t="n">
+        <v>18296.26</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18238.66</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>7647.51</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7574.53</v>
+      </c>
       <c r="D27" t="n">
-        <v>18268.14</v>
+        <v>7632.69</v>
       </c>
       <c r="E27" t="n">
-        <v>18216.2</v>
+        <v>7682.94</v>
       </c>
       <c r="F27" t="n">
-        <v>18276.34</v>
+        <v>7584.13</v>
       </c>
       <c r="G27" t="n">
-        <v>18192.71</v>
+        <v>7763.53</v>
       </c>
       <c r="H27" t="n">
-        <v>18166.97</v>
+        <v>7559.43</v>
       </c>
       <c r="I27" t="n">
-        <v>18162.51</v>
+        <v>7665.97</v>
       </c>
       <c r="J27" t="n">
-        <v>18242.59</v>
+        <v>7521.7</v>
       </c>
       <c r="K27" t="n">
-        <v>18216.05</v>
+        <v>7437.53</v>
       </c>
       <c r="L27" t="n">
-        <v>18227.99</v>
+        <v>7785.94</v>
       </c>
       <c r="M27" t="n">
-        <v>18177.85</v>
+        <v>7612.96</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7786.72</v>
+      </c>
+      <c r="O27" t="n">
+        <v>7634.38</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7530.43</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7471.13</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7535.17</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7406.59</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7740.71</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7509.92</v>
+      </c>
+      <c r="V27" t="n">
+        <v>7624.71</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7370.12</v>
+      </c>
+      <c r="X27" t="n">
+        <v>7664.21</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>7619.39</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7575.57</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7662.28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7691.68</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7602.22</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7578.49</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7504.64</v>
-      </c>
-      <c r="F28" t="n">
-        <v>7585.22</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7512.4</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7594.25</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7591.95</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7594.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>7624.38</v>
-      </c>
-      <c r="L28" t="n">
-        <v>7522.77</v>
-      </c>
-      <c r="M28" t="n">
-        <v>7647.51</v>
-      </c>
+        <v>8875.540000000001</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8934.290000000001</v>
+        <v>389900.25</v>
       </c>
       <c r="C29" t="n">
-        <v>8916.5</v>
+        <v>389702.22</v>
       </c>
       <c r="D29" t="n">
-        <v>8881.700000000001</v>
+        <v>392463.52</v>
       </c>
       <c r="E29" t="n">
-        <v>8932.91</v>
+        <v>390366.38</v>
       </c>
       <c r="F29" t="n">
-        <v>8941.709999999999</v>
+        <v>389270.2</v>
       </c>
       <c r="G29" t="n">
-        <v>8932.34</v>
+        <v>390346.29</v>
       </c>
       <c r="H29" t="n">
-        <v>8944.799999999999</v>
+        <v>389318.9</v>
       </c>
       <c r="I29" t="n">
-        <v>8918.43</v>
+        <v>389881.33</v>
       </c>
       <c r="J29" t="n">
-        <v>8949.84</v>
+        <v>389700.46</v>
       </c>
       <c r="K29" t="n">
-        <v>8909.690000000001</v>
+        <v>390525.89</v>
       </c>
       <c r="L29" t="n">
-        <v>8870.02</v>
+        <v>389425.67</v>
       </c>
       <c r="M29" t="n">
-        <v>8875.540000000001</v>
+        <v>389376.09</v>
+      </c>
+      <c r="N29" t="n">
+        <v>390107.95</v>
+      </c>
+      <c r="O29" t="n">
+        <v>390079.12</v>
+      </c>
+      <c r="P29" t="n">
+        <v>398679.01</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>399102.62</v>
+      </c>
+      <c r="R29" t="n">
+        <v>398671.4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>399068.96</v>
+      </c>
+      <c r="T29" t="n">
+        <v>398640.72</v>
+      </c>
+      <c r="U29" t="n">
+        <v>397759.57</v>
+      </c>
+      <c r="V29" t="n">
+        <v>398927.32</v>
+      </c>
+      <c r="W29" t="n">
+        <v>397470.57</v>
+      </c>
+      <c r="X29" t="n">
+        <v>421654.97</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>420238.66</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>421169.23</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>421408.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>353937.75</v>
+        <v>75497.16</v>
       </c>
       <c r="C30" t="n">
-        <v>353831.64</v>
+        <v>75755.25999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>353973.15</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+        <v>76017.89999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>75685.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>75523.21000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>75500.03999999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>75736.09</v>
+      </c>
+      <c r="I30" t="n">
+        <v>75517.13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>75895.84</v>
+      </c>
+      <c r="K30" t="n">
+        <v>75942.14</v>
+      </c>
+      <c r="L30" t="n">
+        <v>75781.39</v>
+      </c>
+      <c r="M30" t="n">
+        <v>75647.69</v>
+      </c>
+      <c r="N30" t="n">
+        <v>75807.44</v>
+      </c>
+      <c r="O30" t="n">
+        <v>75450.49000000001</v>
+      </c>
+      <c r="P30" t="n">
+        <v>75924.66</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>75506.88</v>
+      </c>
+      <c r="R30" t="n">
+        <v>75526.03</v>
+      </c>
+      <c r="S30" t="n">
+        <v>75724.22</v>
+      </c>
+      <c r="T30" t="n">
+        <v>75634.98</v>
+      </c>
+      <c r="U30" t="n">
+        <v>75592.25</v>
+      </c>
+      <c r="V30" t="n">
+        <v>75520.64999999999</v>
+      </c>
+      <c r="W30" t="n">
+        <v>75724.14</v>
+      </c>
+      <c r="X30" t="n">
+        <v>75488.66</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>75466.48</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>75487.14</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>75683.86</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>387050.49</v>
+        <v>2716.08</v>
       </c>
       <c r="C31" t="n">
-        <v>387147.47</v>
+        <v>2706.74</v>
       </c>
       <c r="D31" t="n">
-        <v>386826.43</v>
+        <v>2727.72</v>
       </c>
       <c r="E31" t="n">
-        <v>386942.99</v>
+        <v>2704.49</v>
       </c>
       <c r="F31" t="n">
-        <v>387250.54</v>
+        <v>2690.09</v>
       </c>
       <c r="G31" t="n">
-        <v>386781.16</v>
+        <v>2693.61</v>
       </c>
       <c r="H31" t="n">
-        <v>386893.05</v>
+        <v>2706.88</v>
       </c>
       <c r="I31" t="n">
-        <v>386986.83</v>
+        <v>2673.43</v>
       </c>
       <c r="J31" t="n">
-        <v>389952.01</v>
+        <v>2740.29</v>
       </c>
       <c r="K31" t="n">
-        <v>390286.46</v>
+        <v>2724.59</v>
       </c>
       <c r="L31" t="n">
-        <v>389585.79</v>
+        <v>2703.92</v>
       </c>
       <c r="M31" t="n">
-        <v>389900.25</v>
+        <v>2719.44</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2736.73</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2751.65</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2738.39</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2684.35</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2714.35</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2726.86</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2731.19</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2675.69</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2721.9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2682.78</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2669.95</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2673.07</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2682.85</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2745.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75667.28</v>
+        <v>36524.41</v>
       </c>
       <c r="C32" t="n">
-        <v>75569.42</v>
+        <v>36490.87</v>
       </c>
       <c r="D32" t="n">
-        <v>75861.58</v>
+        <v>36399.95</v>
       </c>
       <c r="E32" t="n">
-        <v>75820.89999999999</v>
+        <v>35573.74</v>
       </c>
       <c r="F32" t="n">
-        <v>75582.03999999999</v>
+        <v>34793.98</v>
       </c>
       <c r="G32" t="n">
-        <v>75574.28999999999</v>
+        <v>34793.79</v>
       </c>
       <c r="H32" t="n">
-        <v>75617</v>
+        <v>35394.32</v>
       </c>
       <c r="I32" t="n">
-        <v>75896.03999999999</v>
+        <v>37477.14</v>
       </c>
       <c r="J32" t="n">
-        <v>75927.67</v>
+        <v>37314.94</v>
       </c>
       <c r="K32" t="n">
-        <v>75645.41</v>
+        <v>37554.65</v>
       </c>
       <c r="L32" t="n">
-        <v>75564.46000000001</v>
+        <v>37411.77</v>
       </c>
       <c r="M32" t="n">
-        <v>75497.16</v>
+        <v>37632.83</v>
+      </c>
+      <c r="N32" t="n">
+        <v>37365.88</v>
+      </c>
+      <c r="O32" t="n">
+        <v>37155.75</v>
+      </c>
+      <c r="P32" t="n">
+        <v>36970.02</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>38427.48</v>
+      </c>
+      <c r="R32" t="n">
+        <v>39991.36</v>
+      </c>
+      <c r="S32" t="n">
+        <v>40010.41</v>
+      </c>
+      <c r="T32" t="n">
+        <v>39964.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>41049.7</v>
+      </c>
+      <c r="V32" t="n">
+        <v>42923.27</v>
+      </c>
+      <c r="W32" t="n">
+        <v>42882.75</v>
+      </c>
+      <c r="X32" t="n">
+        <v>44015.41</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>43725.38</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>45054.4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>44954.52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2696.38</v>
+        <v>1095732.16</v>
       </c>
       <c r="C33" t="n">
-        <v>2705.63</v>
+        <v>1058235.2</v>
       </c>
       <c r="D33" t="n">
-        <v>2721.55</v>
+        <v>1055598.45</v>
       </c>
       <c r="E33" t="n">
-        <v>2705.11</v>
+        <v>996064.75</v>
       </c>
       <c r="F33" t="n">
-        <v>2698.84</v>
+        <v>974231.51</v>
       </c>
       <c r="G33" t="n">
-        <v>2736.93</v>
+        <v>939432.2</v>
       </c>
       <c r="H33" t="n">
-        <v>2707.04</v>
+        <v>920252.34</v>
       </c>
       <c r="I33" t="n">
-        <v>2732.38</v>
+        <v>936928.5600000001</v>
       </c>
       <c r="J33" t="n">
-        <v>2734.48</v>
+        <v>932873.55</v>
       </c>
       <c r="K33" t="n">
-        <v>2736.13</v>
+        <v>938866.13</v>
       </c>
       <c r="L33" t="n">
-        <v>2725.05</v>
+        <v>935294.3100000001</v>
       </c>
       <c r="M33" t="n">
-        <v>2716.08</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>46734.13</v>
-      </c>
-      <c r="C34" t="n">
-        <v>51139.79</v>
-      </c>
-      <c r="D34" t="n">
-        <v>47654.34</v>
-      </c>
-      <c r="E34" t="n">
-        <v>37560.88</v>
-      </c>
-      <c r="F34" t="n">
-        <v>37582.44</v>
-      </c>
-      <c r="G34" t="n">
-        <v>37536.45</v>
-      </c>
-      <c r="H34" t="n">
-        <v>37382.78</v>
-      </c>
-      <c r="I34" t="n">
-        <v>37381.51</v>
-      </c>
-      <c r="J34" t="n">
-        <v>37449.91</v>
-      </c>
-      <c r="K34" t="n">
-        <v>37347.06</v>
-      </c>
-      <c r="L34" t="n">
-        <v>37102.92</v>
-      </c>
-      <c r="M34" t="n">
-        <v>36524.41</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1495492.07</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1073935.54</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1477284.63</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1126826.49</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1127473.26</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1126093.49</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1121483.35</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1121445.37</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1123497.38</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1120411.81</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1113087.47</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1095732.16</v>
+        <v>940820.6899999999</v>
+      </c>
+      <c r="N33" t="n">
+        <v>934147.0699999999</v>
+      </c>
+      <c r="O33" t="n">
+        <v>928893.65</v>
+      </c>
+      <c r="P33" t="n">
+        <v>924250.59</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>922259.4300000001</v>
+      </c>
+      <c r="R33" t="n">
+        <v>919801.28</v>
+      </c>
+      <c r="S33" t="n">
+        <v>920239.34</v>
+      </c>
+      <c r="T33" t="n">
+        <v>919177.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>903093.41</v>
+      </c>
+      <c r="V33" t="n">
+        <v>901388.73</v>
+      </c>
+      <c r="W33" t="n">
+        <v>900537.6899999999</v>
+      </c>
+      <c r="X33" t="n">
+        <v>924323.66</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>918233.08</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>901088.02</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>899090.34</v>
       </c>
     </row>
   </sheetData>
